--- a/Scrum/phase 2/Sprint 2/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 2/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 2\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Faculdade\3ºano\1º Semestre\ES\1ºfase\ES_gantProject\Scrum\phase 2\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D801ACDC-2D5E-4D15-80BE-BEA04B91FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF7054D-6437-4B97-94E1-8358FB37A627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Task Description</t>
   </si>
@@ -45,14 +45,17 @@
     <t>2º functionality</t>
   </si>
   <si>
-    <t>Guilherme</t>
+    <t>Guilherme Joana         Leticia</t>
+  </si>
+  <si>
+    <t>Samuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +84,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -298,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -342,6 +353,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,20 +634,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E9"/>
+  <dimension ref="B5:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="5" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
@@ -649,13 +661,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="12"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="2:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -665,13 +677,18 @@
       <c r="D8" s="3"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Scrum/phase 2/Sprint 2/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 2/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Faculdade\3ºano\1º Semestre\ES\1ºfase\ES_gantProject\Scrum\phase 2\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Universidade\ES\ES_gantProject\Scrum\phase 2\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF7054D-6437-4B97-94E1-8358FB37A627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92667589-6BD8-4713-9F6D-B74E82CA4E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -335,6 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,7 +354,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,37 +637,37 @@
   <dimension ref="B5:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="5" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="9" t="s">
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="14"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="2:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
@@ -687,8 +687,8 @@
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C10" s="15"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
